--- a/Ressources_Réa_Pro/TP Conversions/Conv_adr_IP.xlsx
+++ b/Ressources_Réa_Pro/TP Conversions/Conv_adr_IP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\BTS\Bloc1_SISR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA731A2-57A1-4011-BC1E-83D814EA5F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57989F8-EDF1-41A9-9137-D8EA8B99F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11BADAE5-A753-46B4-BCC0-03379FEAF3D1}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{11BADAE5-A753-46B4-BCC0-03379FEAF3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +102,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +128,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EA4EA"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,23 +199,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60 % - Accent1" xfId="1" builtinId="32"/>
@@ -203,6 +237,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF304BBF"/>
+      <color rgb="FF6EA4EA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -221,13 +261,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121479</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -242,8 +282,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774700" y="749300"/>
-          <a:ext cx="4559300" cy="723900"/>
+          <a:off x="774700" y="736601"/>
+          <a:ext cx="4559300" cy="489778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -277,10 +317,20 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="fr-FR" sz="850"/>
+            <a:rPr lang="fr-FR" sz="790" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Afin d’effectuer les conversions ci-dessous vous devez établir le tableau correspondant à l’aide d’un tableur type Excel ou Numbers, et créer les formules permettant d’obtenir les résultats attendus. Tous les calculs devront être automatisés. Vous expliquerez comment vous avez procédé.</a:t>
           </a:r>
+          <a:endParaRPr lang="fr-FR" sz="790" i="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -291,7 +341,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>121781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -312,8 +362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1530350" y="273050"/>
-          <a:ext cx="2286000" cy="260350"/>
+          <a:off x="1537309" y="304452"/>
+          <a:ext cx="2296438" cy="225990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -349,26 +399,32 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1">
+            <a:rPr lang="fr-FR" sz="1000" b="1">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="304BBF"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>CONVERTIONS</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1" baseline="0">
+            <a:rPr lang="fr-FR" sz="1000" b="1" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="304BBF"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> ADRESSES</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1">
+            <a:rPr lang="fr-FR" sz="1000" b="1">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="304BBF"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> IP</a:t>
           </a:r>
@@ -677,594 +733,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4744C3-BE92-4EFE-ACCA-CAB43D29EBDA}">
-  <dimension ref="A4:G40"/>
+  <dimension ref="A4:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="4"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="9">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="9">
         <v>46</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="9">
         <v>14</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="str">
-        <f>HEX2BIN(B8)</f>
+      <c r="B10" s="9" t="str">
+        <f>HEX2BIN(B9)</f>
         <v>10101100</v>
       </c>
-      <c r="C9" t="str">
-        <f>HEX2BIN(C8)</f>
+      <c r="C10" s="9" t="str">
+        <f>HEX2BIN(C9)</f>
         <v>10000</v>
       </c>
-      <c r="D9" t="str">
-        <f>HEX2BIN(D8)</f>
+      <c r="D10" s="9" t="str">
+        <f>HEX2BIN(D9)</f>
         <v>1000110</v>
       </c>
-      <c r="E9" t="str">
-        <f>HEX2BIN(E8)</f>
+      <c r="E10" s="9" t="str">
+        <f>HEX2BIN(E9)</f>
         <v>10100</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <f>HEX2DEC(B8)</f>
+      <c r="B11" s="9">
+        <f>HEX2DEC(B9)</f>
         <v>172</v>
       </c>
-      <c r="C10">
-        <f>HEX2DEC(C8)</f>
+      <c r="C11" s="9">
+        <f>HEX2DEC(C9)</f>
         <v>16</v>
       </c>
-      <c r="D10">
-        <f>HEX2DEC(D8)</f>
+      <c r="D11" s="9">
+        <f>HEX2DEC(D9)</f>
         <v>70</v>
       </c>
-      <c r="E10">
-        <f>HEX2DEC(E8)</f>
+      <c r="E11" s="9">
+        <f>HEX2DEC(E9)</f>
         <v>20</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="9">
         <v>172</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="9">
         <v>16</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="9">
         <v>70</v>
       </c>
-      <c r="E12">
+      <c r="E13" s="9">
         <v>20</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="str">
-        <f>DEC2BIN(B12)</f>
+      <c r="B14" s="9" t="str">
+        <f>DEC2BIN(B13)</f>
         <v>10101100</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" ref="C13:E13" si="0">DEC2BIN(C12)</f>
+      <c r="C14" s="9" t="str">
+        <f t="shared" ref="C14:E14" si="0">DEC2BIN(C13)</f>
         <v>10000</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1000110</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="str">
-        <f>DEC2HEX(B12)</f>
+      <c r="B15" s="9" t="str">
+        <f>DEC2HEX(B13)</f>
         <v>AC</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" ref="C14:E14" si="1">DEC2HEX(C12)</f>
+      <c r="C15" s="9" t="str">
+        <f t="shared" ref="C15:E15" si="1">DEC2HEX(C13)</f>
         <v>10</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="9">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="str">
-        <f>HEX2BIN(B16)</f>
+      <c r="B18" s="9" t="str">
+        <f>HEX2BIN(B17)</f>
         <v>11000000</v>
       </c>
-      <c r="C17" t="str">
-        <f>HEX2BIN(C16)</f>
+      <c r="C18" s="9" t="str">
+        <f>HEX2BIN(C17)</f>
         <v>10101000</v>
       </c>
-      <c r="D17" t="str">
-        <f>HEX2BIN(D16)</f>
+      <c r="D18" s="9" t="str">
+        <f>HEX2BIN(D17)</f>
         <v>100001</v>
       </c>
-      <c r="E17" t="str">
-        <f>HEX2BIN(E16)</f>
+      <c r="E18" s="9" t="str">
+        <f>HEX2BIN(E17)</f>
         <v>1101</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
-        <f>HEX2DEC(B16)</f>
+      <c r="B19" s="9">
+        <f>HEX2DEC(B17)</f>
         <v>192</v>
       </c>
-      <c r="C18">
-        <f>HEX2DEC(C16)</f>
+      <c r="C19" s="9">
+        <f>HEX2DEC(C17)</f>
         <v>168</v>
       </c>
-      <c r="D18">
-        <f>HEX2DEC(D16)</f>
+      <c r="D19" s="9">
+        <f>HEX2DEC(D17)</f>
         <v>33</v>
       </c>
-      <c r="E18">
-        <f>HEX2DEC(E16)</f>
+      <c r="E19" s="9">
+        <f>HEX2DEC(E17)</f>
         <v>13</v>
       </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="9">
         <v>192</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="9">
         <v>168</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="9">
         <v>33</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="9">
         <v>13</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="str">
-        <f>DEC2BIN(B20)</f>
+      <c r="B22" s="9" t="str">
+        <f>DEC2BIN(B21)</f>
         <v>11000000</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" ref="C21:E21" si="2">DEC2BIN(C20)</f>
+      <c r="C22" s="9" t="str">
+        <f t="shared" ref="C22:E22" si="2">DEC2BIN(C21)</f>
         <v>10101000</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" s="9" t="str">
         <f t="shared" si="2"/>
         <v>100001</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E22" s="9" t="str">
         <f t="shared" si="2"/>
         <v>1101</v>
       </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="str">
-        <f>DEC2HEX(B20)</f>
+      <c r="B23" s="9" t="str">
+        <f>DEC2HEX(B21)</f>
         <v>C0</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" ref="C22:E22" si="3">DEC2HEX(C20)</f>
+      <c r="C23" s="9" t="str">
+        <f t="shared" ref="C23:E23" si="3">DEC2HEX(C21)</f>
         <v>A8</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" s="9" t="str">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" s="9" t="str">
         <f t="shared" si="3"/>
         <v>D</v>
       </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
+      <c r="E25" s="9">
         <v>54</v>
       </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="str">
-        <f>HEX2BIN(B24)</f>
+      <c r="B26" s="9" t="str">
+        <f>HEX2BIN(B25)</f>
         <v>11101100</v>
       </c>
-      <c r="C25" t="str">
-        <f>HEX2BIN(C24)</f>
+      <c r="C26" s="9" t="str">
+        <f>HEX2BIN(C25)</f>
         <v>10111101</v>
       </c>
-      <c r="D25" t="str">
-        <f>HEX2BIN(D24)</f>
+      <c r="D26" s="9" t="str">
+        <f>HEX2BIN(D25)</f>
         <v>11111010</v>
       </c>
-      <c r="E25" t="str">
-        <f>HEX2BIN(E24)</f>
+      <c r="E26" s="9" t="str">
+        <f>HEX2BIN(E25)</f>
         <v>1010100</v>
       </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B26">
-        <f>HEX2DEC(B24)</f>
+      <c r="B27" s="9">
+        <f>HEX2DEC(B25)</f>
         <v>236</v>
       </c>
-      <c r="C26">
-        <f>HEX2DEC(C24)</f>
+      <c r="C27" s="9">
+        <f>HEX2DEC(C25)</f>
         <v>189</v>
       </c>
-      <c r="D26">
-        <f>HEX2DEC(D24)</f>
+      <c r="D27" s="9">
+        <f>HEX2DEC(D25)</f>
         <v>250</v>
       </c>
-      <c r="E26">
-        <f>HEX2DEC(E24)</f>
+      <c r="E27" s="9">
+        <f>HEX2DEC(E25)</f>
         <v>84</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="9">
         <v>93</v>
       </c>
-      <c r="C28">
+      <c r="C29" s="9">
         <v>76</v>
       </c>
-      <c r="D28">
+      <c r="D29" s="9">
         <v>39</v>
       </c>
-      <c r="E28">
+      <c r="E29" s="9">
         <v>5</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B29" t="str">
-        <f>DEC2BIN(B28)</f>
+      <c r="B30" s="9" t="str">
+        <f>DEC2BIN(B29)</f>
         <v>1011101</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" ref="C29:E29" si="4">DEC2BIN(C28)</f>
+      <c r="C30" s="9" t="str">
+        <f t="shared" ref="C30:E30" si="4">DEC2BIN(C29)</f>
         <v>1001100</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" s="9" t="str">
         <f t="shared" si="4"/>
         <v>100111</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E30" s="9" t="str">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="str">
-        <f>DEC2HEX(B28)</f>
+      <c r="B31" s="9" t="str">
+        <f>DEC2HEX(B29)</f>
         <v>5D</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" ref="C30:E30" si="5">DEC2HEX(C28)</f>
+      <c r="C31" s="9" t="str">
+        <f t="shared" ref="C31:E31" si="5">DEC2HEX(C29)</f>
         <v>4C</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" s="9" t="str">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E31" s="9" t="str">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B33" t="str">
-        <f>HEX2BIN(B32)</f>
+      <c r="B34" s="9" t="str">
+        <f>HEX2BIN(B33)</f>
         <v>11001010</v>
       </c>
-      <c r="C33" t="str">
-        <f>HEX2BIN(C32)</f>
+      <c r="C34" s="9" t="str">
+        <f>HEX2BIN(C33)</f>
         <v>11101111</v>
       </c>
-      <c r="D33" t="str">
-        <f>HEX2BIN(D32)</f>
+      <c r="D34" s="9" t="str">
+        <f>HEX2BIN(D33)</f>
         <v>11011101</v>
       </c>
-      <c r="E33" t="str">
-        <f>HEX2BIN(E32)</f>
+      <c r="E34" s="9" t="str">
+        <f>HEX2BIN(E33)</f>
         <v>10101110</v>
       </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B34">
-        <f>HEX2DEC(B32)</f>
+      <c r="B35" s="9">
+        <f>HEX2DEC(B33)</f>
         <v>202</v>
       </c>
-      <c r="C34">
-        <f>HEX2DEC(C32)</f>
+      <c r="C35" s="9">
+        <f>HEX2DEC(C33)</f>
         <v>239</v>
       </c>
-      <c r="D34">
-        <f>HEX2DEC(D32)</f>
+      <c r="D35" s="9">
+        <f>HEX2DEC(D33)</f>
         <v>221</v>
       </c>
-      <c r="E34">
-        <f>HEX2DEC(E32)</f>
+      <c r="E35" s="9">
+        <f>HEX2DEC(E33)</f>
         <v>174</v>
       </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="15"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="9">
         <v>167</v>
       </c>
-      <c r="C36">
+      <c r="C37" s="9">
         <v>54</v>
       </c>
-      <c r="D36">
+      <c r="D37" s="9">
         <v>29</v>
       </c>
-      <c r="E36">
+      <c r="E37" s="9">
         <v>66</v>
       </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B37" t="str">
-        <f>DEC2BIN(B36)</f>
+      <c r="B38" s="9" t="str">
+        <f>DEC2BIN(B37)</f>
         <v>10100111</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" ref="C37:E37" si="6">DEC2BIN(C36)</f>
+      <c r="C38" s="9" t="str">
+        <f t="shared" ref="C38:E38" si="6">DEC2BIN(C37)</f>
         <v>110110</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D38" s="9" t="str">
         <f t="shared" si="6"/>
         <v>11101</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E38" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1000010</v>
       </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B38" t="str">
-        <f>DEC2HEX(B36)</f>
+      <c r="B39" s="9" t="str">
+        <f>DEC2HEX(B37)</f>
         <v>A7</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" ref="C38:E38" si="7">DEC2HEX(C36)</f>
+      <c r="C39" s="9" t="str">
+        <f t="shared" ref="C39:E39" si="7">DEC2HEX(C37)</f>
         <v>36</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D39" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1D</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E39" s="9" t="str">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="17"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Ressources_Réa_Pro/TP Conversions/Conv_adr_IP.xlsx
+++ b/Ressources_Réa_Pro/TP Conversions/Conv_adr_IP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\TP Conversions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57989F8-EDF1-41A9-9137-D8EA8B99F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1145B0C2-401E-4BB3-BD1F-939F31EF932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{11BADAE5-A753-46B4-BCC0-03379FEAF3D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11BADAE5-A753-46B4-BCC0-03379FEAF3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -258,86 +258,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121479</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1431A4-EAF9-CE7C-FECB-5E84C169465C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="774700" y="736601"/>
-          <a:ext cx="4559300" cy="489778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="790" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Afin d’effectuer les conversions ci-dessous vous devez établir le tableau correspondant à l’aide d’un tableur type Excel ou Numbers, et créer les formules permettant d’obtenir les résultats attendus. Tous les calculs devront être automatisés. Vous expliquerez comment vous avez procédé.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="790" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -428,6 +348,86 @@
             </a:rPr>
             <a:t> IP</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1431A4-EAF9-CE7C-FECB-5E84C169465C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="736601"/>
+          <a:ext cx="4559300" cy="489778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="790" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Afin d’effectuer les conversions ci-dessous vous devez établir le tableau correspondant à l’aide d’un tableur type Excel ou Numbers, et créer les formules permettant d’obtenir les résultats attendus. Tous les calculs devront être automatisés. Vous expliquerez comment vous avez procédé.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="790" i="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -736,7 +736,7 @@
   <dimension ref="A4:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
